--- a/Informatica II.xlsx
+++ b/Informatica II.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\git\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B63A5-B8A6-44DD-800A-02F01428E2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD9AA9-16E6-4D34-99E1-DEF22C6A4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9E06F8F5-516F-41DB-9788-93156902B16F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="33">
   <si>
     <t>Horas</t>
   </si>
@@ -117,13 +117,31 @@
   </si>
   <si>
     <t>Limpieza-preparacion c.</t>
+  </si>
+  <si>
+    <t>Limpieza</t>
+  </si>
+  <si>
+    <t>Limpieza-Almuerzo</t>
+  </si>
+  <si>
+    <t>Pendientes-descanso</t>
+  </si>
+  <si>
+    <t>Transporte-Lectoescritura</t>
+  </si>
+  <si>
+    <t>Lectoescritura</t>
+  </si>
+  <si>
+    <t>Ingles Repaso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +166,14 @@
       <color theme="1"/>
       <name val="Algerian"/>
       <family val="5"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -230,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -267,6 +293,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,13 +610,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D0C32-11CE-4422-AED6-0241CF76C02E}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="22.21875" customWidth="1"/>
+    <col min="1" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="0.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -661,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>18</v>
@@ -687,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>18</v>
@@ -713,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>18</v>
@@ -785,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -811,13 +839,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -837,13 +865,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -866,10 +894,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
@@ -958,6 +986,7 @@
       <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -996,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>14</v>
@@ -1071,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>

--- a/Informatica II.xlsx
+++ b/Informatica II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\git\cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CD9AA9-16E6-4D34-99E1-DEF22C6A4715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A577B92-8799-4612-B04A-DFD93EBD9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9E06F8F5-516F-41DB-9788-93156902B16F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="38">
   <si>
     <t>Horas</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Ingles Repaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>trasporte</t>
+  </si>
+  <si>
+    <t>Algebra-InglesP</t>
+  </si>
+  <si>
+    <t>InglesP</t>
+  </si>
+  <si>
+    <t>AlgebraP</t>
   </si>
 </sst>
 </file>
@@ -610,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D0C32-11CE-4422-AED6-0241CF76C02E}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0.1875</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1328,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1405,14 +1420,12 @@
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>9</v>
@@ -1438,13 +1451,13 @@
         <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1458,19 +1471,19 @@
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>0.625</v>
       </c>
@@ -1490,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>9</v>
@@ -1513,10 +1526,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>9</v>
@@ -1536,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>9</v>
@@ -1562,13 +1575,13 @@
         <v>24</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>9</v>
@@ -1588,10 +1601,10 @@
         <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>16</v>
@@ -1692,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0.1875</v>
       </c>
@@ -1718,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>0.25</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1796,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1822,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>0.375</v>
       </c>
@@ -1848,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1874,7 +1887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1900,7 +1913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -1926,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1952,7 +1965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1978,7 +1991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0.625</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -2030,7 +2043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>0.75</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -2252,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>0.25</v>
       </c>
@@ -2278,7 +2291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>0.375</v>
       </c>
@@ -2356,7 +2369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -2408,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>0</v>
       </c>
